--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3478.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3478.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.082888273572422</v>
+        <v>0.7655548453330994</v>
       </c>
       <c r="B1">
-        <v>1.854431009382627</v>
+        <v>1.332211017608643</v>
       </c>
       <c r="C1">
-        <v>6.119153782366202</v>
+        <v>4.26425838470459</v>
       </c>
       <c r="D1">
-        <v>4.620624897886404</v>
+        <v>3.827998399734497</v>
       </c>
       <c r="E1">
-        <v>1.599749992946137</v>
+        <v>1.673259735107422</v>
       </c>
     </row>
   </sheetData>
